--- a/data/games_odds.xlsx
+++ b/data/games_odds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,91 +458,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-192</v>
+        <v>-700</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-175</v>
+        <v>550</v>
       </c>
       <c r="D3" t="n">
-        <v>145</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>575</v>
+        <v>-192</v>
       </c>
       <c r="D4" t="n">
-        <v>-850</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>205</v>
+        <v>-102</v>
       </c>
       <c r="D5" t="n">
-        <v>-250</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>310</v>
+        <v>-198</v>
       </c>
       <c r="D6" t="n">
-        <v>-395</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>650</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-130</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-105</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-148</v>
+      </c>
+      <c r="D10" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-535</v>
+      </c>
+      <c r="D11" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
